--- a/data/03_oscar_2018_nomination-best-picture.xlsx
+++ b/data/03_oscar_2018_nomination-best-picture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Documents/Oscar-Machine-Learning-/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CAE5434-AF97-4849-8336-2A9EC42C89B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4AC8479A-CE00-0B48-A80C-D2AAAF4FCF02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45540" yWindow="560" windowWidth="18040" windowHeight="19540"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="222">
   <si>
     <t>year</t>
   </si>
@@ -385,39 +385,9 @@
     <t>No</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>Animation|Adventure|Comedy</t>
-  </si>
-  <si>
-    <t>When a cockerel apparently flies into a chicken farm, the chickens see him as an opportunity to escape their evil owners.</t>
-  </si>
-  <si>
-    <t>Best Motion Picture - Comedy or Musical</t>
-  </si>
-  <si>
-    <t>|Best Achievement in Special Visual Effects</t>
-  </si>
-  <si>
-    <t>Best Animated Film</t>
-  </si>
-  <si>
-    <t>Best Animated Picture</t>
-  </si>
-  <si>
-    <t>Best Animated Picture|Best Voice-Over Performance</t>
-  </si>
-  <si>
     <t>Top Ten Films of the Year</t>
   </si>
   <si>
-    <t>British Film of the Year|British Producer of the Year</t>
-  </si>
-  <si>
-    <t>Best Animation</t>
-  </si>
-  <si>
     <t>Action|Adventure|Family</t>
   </si>
   <si>
@@ -634,9 +604,6 @@
     <t>Best Picture, Best Supporting Actor</t>
   </si>
   <si>
-    <t>Grolsch People's Choice Aware</t>
-  </si>
-  <si>
     <t>Best Edited Feature Film - Comedy</t>
   </si>
   <si>
@@ -647,13 +614,85 @@
   </si>
   <si>
     <t>Top Films of the Year</t>
+  </si>
+  <si>
+    <t>tt1825683</t>
+  </si>
+  <si>
+    <t>PG-14</t>
+  </si>
+  <si>
+    <t>T'Challa, heir to the hidden but advanced kingdom of Wakanda, must step forward to lead his people into a new future and must confront a challenger from his country's past.</t>
+  </si>
+  <si>
+    <t>Best Achievement in Music Written for Motion Pictures (Original Score), Best Achievement in Costume Design, Best Achievement in Production Design, Best Achievement in Music Written for Motion Pictures (Original Song), Best Motion Picture of the Year, Best Achievement in Sound Editing, Best Achievement in Sound Mixing</t>
+  </si>
+  <si>
+    <t>Best Motion Picture - Drama | Best Original Score - Motion Picture | Best Original Song - Motion Picture</t>
+  </si>
+  <si>
+    <t>Best Achievement in Special Visual Effects</t>
+  </si>
+  <si>
+    <t>Outstanding Performance by a Cast in a Motion Picture | Outstanding Action Performance by a Stunt Ensemble in a Motion Picture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costume Design | Visual Effects | Production Design </t>
+  </si>
+  <si>
+    <t>Costume Design | Visual Effects | Production Design | Supporting Actor | Acting Ensemble | Adapted Screenplay | Makeup | Action Movie</t>
+  </si>
+  <si>
+    <t>Fantasy Film</t>
+  </si>
+  <si>
+    <t>Adapted Screenplay</t>
+  </si>
+  <si>
+    <t>Excellence in Sci-Fi/Fantasy Film</t>
+  </si>
+  <si>
+    <t>Best Acting Ensemble</t>
+  </si>
+  <si>
+    <t>Best Supporting Actor | Best Costume Design</t>
+  </si>
+  <si>
+    <t>Best Supporting Actor | Best Costume Design | Best Original Score</t>
+  </si>
+  <si>
+    <t>Favorite Male Movie Star | Favorite Action Movie Star</t>
+  </si>
+  <si>
+    <t>Favorite Male Movie Star | Favorite Action Movie Star | Favorite Movie | Favorite Action Movie | Favorite Action Movie Star</t>
+  </si>
+  <si>
+    <t>Supporting Actor of the Year|British/Irish Actor of the Year</t>
+  </si>
+  <si>
+    <t>Production Designer of the Year</t>
+  </si>
+  <si>
+    <t>Best Supporting Actor|Best Stunts|Best Ensemble</t>
+  </si>
+  <si>
+    <t>Best Original Score</t>
+  </si>
+  <si>
+    <t>Best Original Score|Best Director|Best Supporting Actor|Best Science-Fiction/Horror Film|Best Visual Effects|Best Adapted Screenplay|Best Original Song</t>
+  </si>
+  <si>
+    <t>Ten Best Films of the Year</t>
+  </si>
+  <si>
+    <t>Best Production Design</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -784,6 +823,19 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1130,9 +1182,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1488,10 +1541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DO9"/>
+  <dimension ref="A1:DO10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DD1" workbookViewId="0">
-      <selection activeCell="DO2" sqref="DO2"/>
+    <sheetView tabSelected="1" topLeftCell="DF1" workbookViewId="0">
+      <selection activeCell="DM20" sqref="DM20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1860,58 +1913,58 @@
         <v>2018</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c r="E2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F2" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="G2">
-        <v>8.3000000000000007</v>
+        <v>7.3</v>
       </c>
       <c r="H2">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="I2" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J2">
-        <v>15726</v>
+        <v>438043</v>
       </c>
       <c r="K2">
-        <v>320429</v>
+        <v>700059566</v>
       </c>
       <c r="L2" s="1">
-        <v>43422</v>
+        <v>43147</v>
       </c>
       <c r="M2">
-        <v>144</v>
+        <v>2638</v>
       </c>
       <c r="N2">
-        <v>249</v>
+        <v>616</v>
       </c>
       <c r="O2">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="P2">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="Q2">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="R2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="S2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="T2" t="s">
         <v>120</v>
@@ -1923,7 +1976,7 @@
         <v>120</v>
       </c>
       <c r="W2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="X2" t="s">
         <v>120</v>
@@ -1932,10 +1985,10 @@
         <v>120</v>
       </c>
       <c r="Z2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="AA2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="AB2" t="s">
         <v>120</v>
@@ -1950,220 +2003,229 @@
         <v>120</v>
       </c>
       <c r="AF2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="AG2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="AH2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="AN2">
         <v>1</v>
       </c>
       <c r="AO2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="AP2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AQ2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AR2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS2" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="AT2">
         <v>2</v>
       </c>
       <c r="AU2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="AV2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AX2">
+        <v>8</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>148</v>
+      </c>
+      <c r="BH2">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>207</v>
+      </c>
+      <c r="BJ2">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>207</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>208</v>
+      </c>
+      <c r="BP2">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>209</v>
+      </c>
+      <c r="BR2">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>209</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>210</v>
+      </c>
+      <c r="BX2">
+        <v>2</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>211</v>
+      </c>
+      <c r="BZ2">
+        <v>3</v>
+      </c>
+      <c r="CA2" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="CB2">
+        <v>2</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>213</v>
+      </c>
+      <c r="CD2">
+        <v>5</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>214</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>2</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>215</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>1</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>216</v>
+      </c>
+      <c r="CP2">
+        <v>1</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>216</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>3</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>217</v>
+      </c>
+      <c r="CV2">
+        <v>1</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>218</v>
+      </c>
+      <c r="CX2">
         <v>7</v>
       </c>
-      <c r="AY2" t="s">
-        <v>200</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>201</v>
-      </c>
-      <c r="BD2">
-        <v>1</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>158</v>
-      </c>
-      <c r="BF2">
-        <v>1</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>158</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>1</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>202</v>
-      </c>
-      <c r="BP2">
-        <v>0</v>
-      </c>
-      <c r="BR2">
-        <v>0</v>
-      </c>
-      <c r="BT2">
-        <v>0</v>
-      </c>
-      <c r="BV2">
-        <v>2</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>203</v>
-      </c>
-      <c r="BX2">
-        <v>0</v>
-      </c>
-      <c r="BZ2">
-        <v>1</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>196</v>
-      </c>
-      <c r="CB2">
-        <v>1</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>204</v>
-      </c>
-      <c r="CD2">
-        <v>1</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>204</v>
-      </c>
-      <c r="CF2">
-        <v>0</v>
-      </c>
-      <c r="CH2">
-        <v>0</v>
-      </c>
-      <c r="CJ2">
-        <v>0</v>
-      </c>
-      <c r="CL2">
-        <v>1</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>205</v>
-      </c>
-      <c r="CN2">
-        <v>2</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>206</v>
-      </c>
-      <c r="CP2">
-        <v>2</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>206</v>
-      </c>
-      <c r="CR2">
-        <v>1</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>207</v>
-      </c>
-      <c r="CT2">
-        <v>1</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>207</v>
-      </c>
-      <c r="CV2">
-        <v>1</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>196</v>
-      </c>
-      <c r="CX2">
-        <v>1</v>
-      </c>
       <c r="CY2" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="CZ2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>220</v>
       </c>
       <c r="DB2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>220</v>
       </c>
       <c r="DD2">
-        <v>1</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>1</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>221</v>
       </c>
       <c r="DJ2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>221</v>
       </c>
       <c r="DL2">
         <v>2018</v>
       </c>
       <c r="DM2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="DN2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="DO2">
         <v>5</v>
@@ -2174,151 +2236,175 @@
         <v>2018</v>
       </c>
       <c r="B3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" t="s">
         <v>182</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3">
+        <v>130</v>
+      </c>
+      <c r="F3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H3">
+        <v>70</v>
+      </c>
+      <c r="I3" t="s">
+        <v>181</v>
+      </c>
+      <c r="J3">
+        <v>15726</v>
+      </c>
+      <c r="K3">
+        <v>320429</v>
+      </c>
+      <c r="L3" s="1">
+        <v>43422</v>
+      </c>
+      <c r="M3">
+        <v>144</v>
+      </c>
+      <c r="N3">
+        <v>249</v>
+      </c>
+      <c r="O3">
+        <v>22</v>
+      </c>
+      <c r="P3">
+        <v>31</v>
+      </c>
+      <c r="Q3">
+        <v>71</v>
+      </c>
+      <c r="R3" t="s">
+        <v>127</v>
+      </c>
+      <c r="S3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T3" t="s">
+        <v>120</v>
+      </c>
+      <c r="U3" t="s">
+        <v>120</v>
+      </c>
+      <c r="V3" t="s">
+        <v>120</v>
+      </c>
+      <c r="W3" t="s">
+        <v>127</v>
+      </c>
+      <c r="X3" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH3">
+        <v>5</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL3">
+        <v>5</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP3">
+        <v>4</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT3">
+        <v>2</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AV3">
+        <v>1</v>
+      </c>
+      <c r="AW3" t="s">
         <v>189</v>
       </c>
-      <c r="D3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3">
-        <v>84</v>
-      </c>
-      <c r="F3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3">
+      <c r="AX3">
         <v>7</v>
       </c>
-      <c r="H3">
-        <v>88</v>
-      </c>
-      <c r="I3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J3">
-        <v>144475</v>
-      </c>
-      <c r="K3">
-        <v>106790000</v>
-      </c>
-      <c r="L3" s="1">
-        <v>36700</v>
-      </c>
-      <c r="M3">
-        <v>361</v>
-      </c>
-      <c r="N3">
-        <v>186</v>
-      </c>
-      <c r="O3">
-        <v>2859</v>
-      </c>
-      <c r="P3">
-        <v>5</v>
-      </c>
-      <c r="Q3">
-        <v>11</v>
-      </c>
-      <c r="R3" t="s">
-        <v>120</v>
-      </c>
-      <c r="S3" t="s">
-        <v>120</v>
-      </c>
-      <c r="T3" t="s">
-        <v>120</v>
-      </c>
-      <c r="U3" t="s">
-        <v>120</v>
-      </c>
-      <c r="V3" t="s">
-        <v>120</v>
-      </c>
-      <c r="W3" t="s">
-        <v>120</v>
-      </c>
-      <c r="X3" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>1</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>2</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>1</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AX3">
-        <v>1</v>
-      </c>
       <c r="AY3" t="s">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="AZ3">
         <v>0</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>191</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>148</v>
       </c>
       <c r="BF3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>148</v>
       </c>
       <c r="BH3">
         <v>0</v>
@@ -2330,7 +2416,10 @@
         <v>0</v>
       </c>
       <c r="BN3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>192</v>
       </c>
       <c r="BP3">
         <v>0</v>
@@ -2339,28 +2428,22 @@
         <v>0</v>
       </c>
       <c r="BT3">
-        <v>1</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="BV3">
         <v>2</v>
       </c>
       <c r="BW3" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="BX3">
-        <v>1</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
         <v>1</v>
       </c>
       <c r="CA3" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="CB3">
         <v>0</v>
@@ -2372,34 +2455,52 @@
         <v>0</v>
       </c>
       <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>1</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>194</v>
+      </c>
+      <c r="CN3">
         <v>2</v>
       </c>
-      <c r="CI3" t="s">
-        <v>130</v>
-      </c>
-      <c r="CJ3">
-        <v>0</v>
-      </c>
-      <c r="CL3">
-        <v>0</v>
-      </c>
-      <c r="CN3">
-        <v>0</v>
+      <c r="CO3" t="s">
+        <v>195</v>
       </c>
       <c r="CP3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>195</v>
       </c>
       <c r="CR3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>196</v>
       </c>
       <c r="CT3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>196</v>
       </c>
       <c r="CV3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>186</v>
       </c>
       <c r="CX3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>186</v>
       </c>
       <c r="CZ3">
         <v>0</v>
@@ -2411,272 +2512,30 @@
         <v>1</v>
       </c>
       <c r="DE3" t="s">
-        <v>126</v>
+        <v>197</v>
       </c>
       <c r="DF3">
         <v>1</v>
       </c>
       <c r="DG3" t="s">
-        <v>126</v>
+        <v>197</v>
       </c>
       <c r="DH3">
-        <v>1</v>
-      </c>
-      <c r="DI3" t="s">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>1</v>
-      </c>
-      <c r="DK3" t="s">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="DL3">
         <v>2018</v>
       </c>
       <c r="DM3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="DN3">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="DO3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:119" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2018</v>
-      </c>
-      <c r="B4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4">
-        <v>106</v>
-      </c>
-      <c r="F4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4">
-        <v>5.6999998099999996</v>
-      </c>
-      <c r="H4">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s">
-        <v>133</v>
-      </c>
-      <c r="J4">
-        <v>273203</v>
-      </c>
-      <c r="K4">
-        <v>154700000</v>
-      </c>
-      <c r="L4" s="1">
-        <v>38541</v>
-      </c>
-      <c r="M4">
-        <v>1008</v>
-      </c>
-      <c r="N4">
-        <v>278</v>
-      </c>
-      <c r="O4">
-        <v>1876</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
-        <v>120</v>
-      </c>
-      <c r="S4" t="s">
-        <v>120</v>
-      </c>
-      <c r="T4" t="s">
-        <v>120</v>
-      </c>
-      <c r="U4" t="s">
-        <v>120</v>
-      </c>
-      <c r="V4" t="s">
-        <v>120</v>
-      </c>
-      <c r="W4" t="s">
-        <v>120</v>
-      </c>
-      <c r="X4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>0</v>
-      </c>
-      <c r="BP4">
-        <v>0</v>
-      </c>
-      <c r="BR4">
-        <v>0</v>
-      </c>
-      <c r="BT4">
-        <v>0</v>
-      </c>
-      <c r="BV4">
-        <v>0</v>
-      </c>
-      <c r="BX4">
-        <v>0</v>
-      </c>
-      <c r="BZ4">
-        <v>0</v>
-      </c>
-      <c r="CB4">
-        <v>0</v>
-      </c>
-      <c r="CD4">
-        <v>0</v>
-      </c>
-      <c r="CF4">
-        <v>0</v>
-      </c>
-      <c r="CH4">
-        <v>0</v>
-      </c>
-      <c r="CJ4">
-        <v>0</v>
-      </c>
-      <c r="CL4">
-        <v>0</v>
-      </c>
-      <c r="CN4">
-        <v>0</v>
-      </c>
-      <c r="CP4">
-        <v>0</v>
-      </c>
-      <c r="CR4">
-        <v>0</v>
-      </c>
-      <c r="CT4">
-        <v>0</v>
-      </c>
-      <c r="CV4">
-        <v>0</v>
-      </c>
-      <c r="CX4">
-        <v>0</v>
-      </c>
-      <c r="CZ4">
-        <v>0</v>
-      </c>
-      <c r="DB4">
-        <v>0</v>
-      </c>
-      <c r="DD4">
-        <v>0</v>
-      </c>
-      <c r="DF4">
-        <v>0</v>
-      </c>
-      <c r="DH4">
-        <v>0</v>
-      </c>
-      <c r="DJ4">
-        <v>0</v>
-      </c>
-      <c r="DL4">
-        <v>2018</v>
-      </c>
-      <c r="DM4">
-        <v>7</v>
-      </c>
-      <c r="DN4">
-        <v>8</v>
-      </c>
-      <c r="DO4">
         <v>5</v>
       </c>
     </row>
@@ -2685,52 +2544,52 @@
         <v>2018</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E5">
+        <v>106</v>
+      </c>
+      <c r="F5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5">
+        <v>5.6999998099999996</v>
+      </c>
+      <c r="H5">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
         <v>123</v>
       </c>
-      <c r="F5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G5">
-        <v>7.40000009999999</v>
-      </c>
-      <c r="H5">
-        <v>61</v>
-      </c>
-      <c r="I5" t="s">
-        <v>136</v>
-      </c>
       <c r="J5">
-        <v>63852</v>
+        <v>58</v>
       </c>
       <c r="K5">
-        <v>25780000</v>
+        <v>154700000</v>
       </c>
       <c r="L5" s="1">
-        <v>37582</v>
+        <v>38541</v>
       </c>
       <c r="M5">
-        <v>272</v>
+        <v>1008</v>
       </c>
       <c r="N5">
-        <v>126</v>
+        <v>278</v>
       </c>
       <c r="O5">
-        <v>2508</v>
+        <v>1876</v>
       </c>
       <c r="P5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="R5" t="s">
         <v>120</v>
@@ -2754,7 +2613,7 @@
         <v>120</v>
       </c>
       <c r="Y5" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="Z5" t="s">
         <v>120</v>
@@ -2781,52 +2640,31 @@
         <v>120</v>
       </c>
       <c r="AH5">
-        <v>6</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>2</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>1</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>4</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="AR5">
         <v>0</v>
       </c>
       <c r="AT5">
-        <v>2</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="AV5">
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>2</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
         <v>0</v>
@@ -2856,19 +2694,13 @@
         <v>0</v>
       </c>
       <c r="BR5">
-        <v>1</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="BT5">
         <v>0</v>
       </c>
       <c r="BV5">
-        <v>1</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="BX5">
         <v>0</v>
@@ -2934,10 +2766,10 @@
         <v>2018</v>
       </c>
       <c r="DM5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="DN5">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="DO5">
         <v>5</v>
@@ -2948,64 +2780,64 @@
         <v>2018</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E6">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="F6" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="G6">
-        <v>8.8000001900000004</v>
+        <v>7.40000009999999</v>
       </c>
       <c r="H6">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="I6" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="J6">
-        <v>1286275</v>
+        <v>63852</v>
       </c>
       <c r="K6">
-        <v>313840000</v>
+        <v>25780000</v>
       </c>
       <c r="L6" s="1">
-        <v>37244</v>
+        <v>37582</v>
       </c>
       <c r="M6">
-        <v>5078</v>
+        <v>272</v>
       </c>
       <c r="N6">
-        <v>296</v>
+        <v>126</v>
       </c>
       <c r="O6">
-        <v>204</v>
+        <v>2508</v>
       </c>
       <c r="P6">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="Q6">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="R6" t="s">
         <v>120</v>
       </c>
       <c r="S6" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="T6" t="s">
         <v>120</v>
       </c>
       <c r="U6" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="V6" t="s">
         <v>120</v>
@@ -3017,13 +2849,13 @@
         <v>120</v>
       </c>
       <c r="Y6" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="Z6" t="s">
         <v>120</v>
       </c>
       <c r="AA6" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="AB6" t="s">
         <v>120</v>
@@ -3035,7 +2867,7 @@
         <v>120</v>
       </c>
       <c r="AE6" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="AF6" t="s">
         <v>120</v>
@@ -3044,133 +2876,106 @@
         <v>120</v>
       </c>
       <c r="AH6">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AI6" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>129</v>
       </c>
       <c r="AL6">
+        <v>2</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP6">
         <v>4</v>
       </c>
-      <c r="AM6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AN6">
-        <v>5</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>151</v>
-      </c>
-      <c r="AP6">
-        <v>14</v>
-      </c>
       <c r="AQ6" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="AR6">
-        <v>1</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="AT6">
         <v>2</v>
       </c>
       <c r="AU6" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="AV6">
-        <v>3</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY6" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="AZ6">
         <v>0</v>
       </c>
       <c r="BB6">
-        <v>1</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="BD6">
         <v>0</v>
       </c>
       <c r="BF6">
-        <v>1</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="BH6">
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>1</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="BL6">
         <v>0</v>
       </c>
       <c r="BN6">
-        <v>1</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="BP6">
         <v>0</v>
       </c>
       <c r="BR6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>135</v>
       </c>
       <c r="BT6">
-        <v>13</v>
-      </c>
-      <c r="BU6" t="s">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="BW6" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="BX6">
-        <v>1</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>8</v>
-      </c>
-      <c r="CA6" t="s">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>2</v>
-      </c>
-      <c r="CC6" t="s">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>3</v>
-      </c>
-      <c r="CE6" t="s">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="CF6">
         <v>0</v>
@@ -3182,10 +2987,7 @@
         <v>0</v>
       </c>
       <c r="CL6">
-        <v>1</v>
-      </c>
-      <c r="CM6" t="s">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="CN6">
         <v>0</v>
@@ -3197,10 +2999,7 @@
         <v>0</v>
       </c>
       <c r="CT6">
-        <v>1</v>
-      </c>
-      <c r="CU6" t="s">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="CV6">
         <v>0</v>
@@ -3212,10 +3011,7 @@
         <v>0</v>
       </c>
       <c r="DB6">
-        <v>1</v>
-      </c>
-      <c r="DC6" t="s">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="DD6">
         <v>0</v>
@@ -3224,28 +3020,22 @@
         <v>0</v>
       </c>
       <c r="DH6">
-        <v>1</v>
-      </c>
-      <c r="DI6" t="s">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>2</v>
-      </c>
-      <c r="DK6" t="s">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="DL6">
         <v>2018</v>
       </c>
       <c r="DM6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DN6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="DO6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:119" x14ac:dyDescent="0.2">
@@ -3253,157 +3043,187 @@
         <v>2018</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D7" t="s">
         <v>119</v>
       </c>
       <c r="E7">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="F7" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="G7">
-        <v>6.0999999000000003</v>
+        <v>8.8000001900000004</v>
       </c>
       <c r="H7">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="I7" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="J7">
-        <v>249988</v>
+        <v>1286275</v>
       </c>
       <c r="K7">
-        <v>215400000</v>
+        <v>313840000</v>
       </c>
       <c r="L7" s="1">
-        <v>36670</v>
+        <v>37244</v>
       </c>
       <c r="M7">
-        <v>1431</v>
+        <v>5078</v>
       </c>
       <c r="N7">
-        <v>234</v>
+        <v>296</v>
       </c>
       <c r="O7">
-        <v>2153</v>
+        <v>204</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="Q7">
+        <v>67</v>
+      </c>
+      <c r="R7" t="s">
+        <v>120</v>
+      </c>
+      <c r="S7" t="s">
+        <v>127</v>
+      </c>
+      <c r="T7" t="s">
+        <v>120</v>
+      </c>
+      <c r="U7" t="s">
+        <v>127</v>
+      </c>
+      <c r="V7" t="s">
+        <v>120</v>
+      </c>
+      <c r="W7" t="s">
+        <v>120</v>
+      </c>
+      <c r="X7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH7">
+        <v>13</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>4</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN7">
+        <v>5</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP7">
+        <v>14</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR7">
+        <v>1</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT7">
         <v>2</v>
       </c>
-      <c r="R7" t="s">
-        <v>120</v>
-      </c>
-      <c r="S7" t="s">
-        <v>120</v>
-      </c>
-      <c r="T7" t="s">
-        <v>120</v>
-      </c>
-      <c r="U7" t="s">
-        <v>120</v>
-      </c>
-      <c r="V7" t="s">
-        <v>120</v>
-      </c>
-      <c r="W7" t="s">
-        <v>120</v>
-      </c>
-      <c r="X7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
+      <c r="AU7" t="s">
+        <v>144</v>
       </c>
       <c r="AV7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW7" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="AX7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY7" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="AZ7">
         <v>0</v>
       </c>
       <c r="BB7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>147</v>
       </c>
       <c r="BD7">
         <v>0</v>
       </c>
       <c r="BF7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>148</v>
       </c>
       <c r="BH7">
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>149</v>
       </c>
       <c r="BL7">
         <v>0</v>
       </c>
       <c r="BN7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>150</v>
       </c>
       <c r="BP7">
         <v>0</v>
@@ -3412,25 +3232,40 @@
         <v>0</v>
       </c>
       <c r="BT7">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>151</v>
       </c>
       <c r="BV7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="BW7" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="BX7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>121</v>
       </c>
       <c r="BZ7">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>153</v>
       </c>
       <c r="CB7">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>154</v>
       </c>
       <c r="CD7">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>155</v>
       </c>
       <c r="CF7">
         <v>0</v>
@@ -3442,7 +3277,10 @@
         <v>0</v>
       </c>
       <c r="CL7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>156</v>
       </c>
       <c r="CN7">
         <v>0</v>
@@ -3454,7 +3292,10 @@
         <v>0</v>
       </c>
       <c r="CT7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="CU7" t="s">
+        <v>157</v>
       </c>
       <c r="CV7">
         <v>0</v>
@@ -3466,7 +3307,10 @@
         <v>0</v>
       </c>
       <c r="DB7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="DC7" t="s">
+        <v>158</v>
       </c>
       <c r="DD7">
         <v>0</v>
@@ -3475,19 +3319,25 @@
         <v>0</v>
       </c>
       <c r="DH7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="DI7" t="s">
+        <v>159</v>
       </c>
       <c r="DJ7">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="DK7" t="s">
+        <v>160</v>
       </c>
       <c r="DL7">
         <v>2018</v>
       </c>
       <c r="DM7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="DN7">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="DO7">
         <v>3</v>
@@ -3498,52 +3348,52 @@
         <v>2018</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E8">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="G8">
-        <v>6.6999998099999996</v>
+        <v>6.0999999000000003</v>
       </c>
       <c r="H8">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="J8">
-        <v>204545</v>
+        <v>249988</v>
       </c>
       <c r="K8">
-        <v>39530000</v>
+        <v>215400000</v>
       </c>
       <c r="L8" s="1">
-        <v>37330</v>
+        <v>36670</v>
       </c>
       <c r="M8">
-        <v>1145</v>
+        <v>1431</v>
       </c>
       <c r="N8">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="O8">
-        <v>355</v>
+        <v>2153</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R8" t="s">
         <v>120</v>
@@ -3615,10 +3465,16 @@
         <v>0</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>163</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>163</v>
       </c>
       <c r="AZ8">
         <v>0</v>
@@ -3654,7 +3510,10 @@
         <v>0</v>
       </c>
       <c r="BV8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>164</v>
       </c>
       <c r="BX8">
         <v>0</v>
@@ -3720,13 +3579,13 @@
         <v>2018</v>
       </c>
       <c r="DM8">
+        <v>5</v>
+      </c>
+      <c r="DN8">
+        <v>24</v>
+      </c>
+      <c r="DO8">
         <v>3</v>
-      </c>
-      <c r="DN8">
-        <v>15</v>
-      </c>
-      <c r="DO8">
-        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:119" x14ac:dyDescent="0.2">
@@ -3734,52 +3593,52 @@
         <v>2018</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E9">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="G9">
-        <v>7.40000009999999</v>
+        <v>6.6999998099999996</v>
       </c>
       <c r="H9">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="J9">
-        <v>468351</v>
+        <v>204545</v>
       </c>
       <c r="K9">
-        <v>157300000</v>
+        <v>39530000</v>
       </c>
       <c r="L9" s="1">
-        <v>36721</v>
+        <v>37330</v>
       </c>
       <c r="M9">
-        <v>1406</v>
+        <v>1145</v>
       </c>
       <c r="N9">
-        <v>289</v>
+        <v>225</v>
       </c>
       <c r="O9">
-        <v>655</v>
+        <v>355</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R9" t="s">
         <v>120</v>
@@ -3884,19 +3743,13 @@
         <v>0</v>
       </c>
       <c r="BR9">
-        <v>1</v>
-      </c>
-      <c r="BS9" t="s">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="BT9">
         <v>0</v>
       </c>
       <c r="BV9">
-        <v>2</v>
-      </c>
-      <c r="BW9" t="s">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="BX9">
         <v>0</v>
@@ -3962,16 +3815,259 @@
         <v>2018</v>
       </c>
       <c r="DM9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="DN9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="DO9">
         <v>5</v>
       </c>
     </row>
+    <row r="10" spans="1:119" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10">
+        <v>104</v>
+      </c>
+      <c r="F10" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10">
+        <v>7.40000009999999</v>
+      </c>
+      <c r="H10">
+        <v>64</v>
+      </c>
+      <c r="I10" t="s">
+        <v>168</v>
+      </c>
+      <c r="J10">
+        <v>468351</v>
+      </c>
+      <c r="K10">
+        <v>157300000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>36721</v>
+      </c>
+      <c r="M10">
+        <v>1406</v>
+      </c>
+      <c r="N10">
+        <v>289</v>
+      </c>
+      <c r="O10">
+        <v>655</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s">
+        <v>120</v>
+      </c>
+      <c r="S10" t="s">
+        <v>120</v>
+      </c>
+      <c r="T10" t="s">
+        <v>120</v>
+      </c>
+      <c r="U10" t="s">
+        <v>120</v>
+      </c>
+      <c r="V10" t="s">
+        <v>120</v>
+      </c>
+      <c r="W10" t="s">
+        <v>120</v>
+      </c>
+      <c r="X10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>1</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>169</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>2</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>170</v>
+      </c>
+      <c r="BX10">
+        <v>0</v>
+      </c>
+      <c r="BZ10">
+        <v>0</v>
+      </c>
+      <c r="CB10">
+        <v>0</v>
+      </c>
+      <c r="CD10">
+        <v>0</v>
+      </c>
+      <c r="CF10">
+        <v>0</v>
+      </c>
+      <c r="CH10">
+        <v>0</v>
+      </c>
+      <c r="CJ10">
+        <v>0</v>
+      </c>
+      <c r="CL10">
+        <v>0</v>
+      </c>
+      <c r="CN10">
+        <v>0</v>
+      </c>
+      <c r="CP10">
+        <v>0</v>
+      </c>
+      <c r="CR10">
+        <v>0</v>
+      </c>
+      <c r="CT10">
+        <v>0</v>
+      </c>
+      <c r="CV10">
+        <v>0</v>
+      </c>
+      <c r="CX10">
+        <v>0</v>
+      </c>
+      <c r="CZ10">
+        <v>0</v>
+      </c>
+      <c r="DB10">
+        <v>0</v>
+      </c>
+      <c r="DD10">
+        <v>0</v>
+      </c>
+      <c r="DF10">
+        <v>0</v>
+      </c>
+      <c r="DH10">
+        <v>0</v>
+      </c>
+      <c r="DJ10">
+        <v>0</v>
+      </c>
+      <c r="DL10">
+        <v>2018</v>
+      </c>
+      <c r="DM10">
+        <v>7</v>
+      </c>
+      <c r="DN10">
+        <v>14</v>
+      </c>
+      <c r="DO10">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/03_oscar_2018_nomination-best-picture.xlsx
+++ b/data/03_oscar_2018_nomination-best-picture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Documents/Oscar-Machine-Learning-/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4AC8479A-CE00-0B48-A80C-D2AAAF4FCF02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7E1CDB60-5756-7B46-84BE-8DA65D0BA7D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45540" yWindow="560" windowWidth="18040" windowHeight="19540"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="239">
   <si>
     <t>year</t>
   </si>
@@ -388,12 +388,6 @@
     <t>Top Ten Films of the Year</t>
   </si>
   <si>
-    <t>Action|Adventure|Family</t>
-  </si>
-  <si>
-    <t>A group of astronauts gain superpowers after a cosmic radiation exposure and must use them to oppose the plans of their enemy, Doctor Victor Von Doom.</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -686,6 +680,63 @@
   </si>
   <si>
     <t>Best Production Design</t>
+  </si>
+  <si>
+    <t>tt7349662</t>
+  </si>
+  <si>
+    <t>Biography|Crime|Drama</t>
+  </si>
+  <si>
+    <t>Ron Stallworth, an African American police officer from Colorado Springs, CO, successfully manages to infiltrate the local Ku Klux Klan branch with the help of a Jewish surrogate who eventually becomes its leader. Based on actual events.</t>
+  </si>
+  <si>
+    <t>Best Adapted Screenplay|Best Achievement in Music Written for Motion Pictures (Original Score)|Best Motion Picture of the Year|Best Achievement in Directing|Best Performance by an Actor in a Supporting Role|Best Achievement in Film Editing</t>
+  </si>
+  <si>
+    <t>Best Motion Picture - Drama|Best Director - Motion Picture|Best Performance by an Actor in a Motion Picture - Drama|Best Performance by an Actor in a Supporting Role in a Motion Picture</t>
+  </si>
+  <si>
+    <t>Best Screenplay (Adapted)</t>
+  </si>
+  <si>
+    <t>Best Screenplay (Adapted)|Best Supporting Actor|Best Film|Original Music</t>
+  </si>
+  <si>
+    <t>Outstanding Performance by a Male Actor in a Supporting Role|Outstanding Performance by a Male Actor in a Leading Role|Outstanding Performance by a Cast in a Motion Picture</t>
+  </si>
+  <si>
+    <t>Supporting Actor|Adapted Screenplay|Director|Picture</t>
+  </si>
+  <si>
+    <t>Excellence in Period Film</t>
+  </si>
+  <si>
+    <t>Best Breakthrough Performance: Male|Best Movie Poster</t>
+  </si>
+  <si>
+    <t>Best Breakthrough Performance: Male|Best Movie Poster|Best Picture|Best Actor|Best Ensemble|Best Casting|Best Director|Best Writing, Screenplay Based on Material from Another Medium|Best Film Editing|Best Supporting Actor</t>
+  </si>
+  <si>
+    <t>Best Picture|Best Director|Best Actor|Best Supporting Actor|Best Adapted Screenplay</t>
+  </si>
+  <si>
+    <t>Film of the Year|Supporting Actor of the Year|Technical Achievement of the Year</t>
+  </si>
+  <si>
+    <t>Breakthrough Actor</t>
+  </si>
+  <si>
+    <t>Best Adapted Screenplay</t>
+  </si>
+  <si>
+    <t>Best Adapted Screenplay|Best Picture|Best Director|Best Supporting Actor</t>
+  </si>
+  <si>
+    <t>Best Male Director</t>
+  </si>
+  <si>
+    <t>Best Male Director|Best Picture|Best Supporting Actor|Best Adapted Screenplay|Best Breakthrough Performance|Best Cast|Best Score|Best Editing</t>
   </si>
 </sst>
 </file>
@@ -1543,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DO10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DF1" workbookViewId="0">
-      <selection activeCell="DM20" sqref="DM20"/>
+    <sheetView tabSelected="1" topLeftCell="DK1" workbookViewId="0">
+      <selection activeCell="DP13" sqref="DP13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1913,64 +1964,64 @@
         <v>2018</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="D2" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="E2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="G2">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="H2">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I2" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="J2">
-        <v>438043</v>
+        <v>77752</v>
       </c>
       <c r="K2">
-        <v>700059566</v>
+        <v>48271960</v>
       </c>
       <c r="L2" s="1">
-        <v>43147</v>
+        <v>43324</v>
       </c>
       <c r="M2">
-        <v>2638</v>
+        <v>502</v>
       </c>
       <c r="N2">
-        <v>616</v>
+        <v>366</v>
       </c>
       <c r="O2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="P2">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="Q2">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="R2" t="s">
         <v>120</v>
       </c>
       <c r="S2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T2" t="s">
         <v>120</v>
       </c>
       <c r="U2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="V2" t="s">
         <v>120</v>
@@ -1988,7 +2039,7 @@
         <v>120</v>
       </c>
       <c r="AA2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AB2" t="s">
         <v>120</v>
@@ -1997,10 +2048,10 @@
         <v>120</v>
       </c>
       <c r="AD2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AE2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AF2" t="s">
         <v>120</v>
@@ -2009,533 +2060,530 @@
         <v>120</v>
       </c>
       <c r="AH2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI2" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="AJ2">
         <v>0</v>
       </c>
       <c r="AL2">
+        <v>4</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AP2">
+        <v>4</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
         <v>3</v>
       </c>
-      <c r="AM2" t="s">
-        <v>202</v>
-      </c>
-      <c r="AN2">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AP2">
-        <v>1</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AR2">
+      <c r="AU2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>4</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>189</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>206</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>229</v>
+      </c>
+      <c r="BT2">
         <v>2</v>
       </c>
-      <c r="AS2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AT2">
-        <v>2</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AV2">
+      <c r="BU2" t="s">
+        <v>230</v>
+      </c>
+      <c r="BV2">
+        <v>10</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>231</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>5</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>232</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
         <v>3</v>
       </c>
-      <c r="AW2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AX2">
-        <v>8</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>1</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>148</v>
-      </c>
-      <c r="BH2">
-        <v>1</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>207</v>
-      </c>
-      <c r="BJ2">
-        <v>1</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>207</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>1</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>208</v>
-      </c>
-      <c r="BP2">
-        <v>1</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>209</v>
-      </c>
-      <c r="BR2">
-        <v>1</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>209</v>
-      </c>
-      <c r="BT2">
-        <v>0</v>
-      </c>
-      <c r="BV2">
-        <v>1</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>210</v>
-      </c>
-      <c r="BX2">
-        <v>2</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>211</v>
-      </c>
-      <c r="BZ2">
-        <v>3</v>
-      </c>
-      <c r="CA2" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="CB2">
-        <v>2</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>213</v>
-      </c>
-      <c r="CD2">
-        <v>5</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>214</v>
-      </c>
-      <c r="CF2">
-        <v>0</v>
-      </c>
-      <c r="CH2">
-        <v>2</v>
-      </c>
       <c r="CI2" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="CJ2">
         <v>0</v>
       </c>
       <c r="CL2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>154</v>
       </c>
       <c r="CN2">
         <v>1</v>
       </c>
       <c r="CO2" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="CP2">
         <v>1</v>
       </c>
       <c r="CQ2" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="CR2">
         <v>0</v>
       </c>
       <c r="CT2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CU2" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="CV2">
         <v>1</v>
       </c>
       <c r="CW2" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="CX2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="CY2" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="CZ2">
-        <v>1</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>1</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>195</v>
       </c>
       <c r="DF2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>195</v>
       </c>
       <c r="DH2">
         <v>1</v>
       </c>
       <c r="DI2" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="DJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="DL2">
         <v>2018</v>
       </c>
       <c r="DM2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="DN2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="DO2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:119" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="4" spans="1:119" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2018</v>
       </c>
-      <c r="B3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3">
-        <v>130</v>
-      </c>
-      <c r="F3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="H3">
-        <v>70</v>
-      </c>
-      <c r="I3" t="s">
-        <v>181</v>
-      </c>
-      <c r="J3">
-        <v>15726</v>
-      </c>
-      <c r="K3">
-        <v>320429</v>
-      </c>
-      <c r="L3" s="1">
-        <v>43422</v>
-      </c>
-      <c r="M3">
-        <v>144</v>
-      </c>
-      <c r="N3">
-        <v>249</v>
-      </c>
-      <c r="O3">
-        <v>22</v>
-      </c>
-      <c r="P3">
-        <v>31</v>
-      </c>
-      <c r="Q3">
-        <v>71</v>
-      </c>
-      <c r="R3" t="s">
-        <v>127</v>
-      </c>
-      <c r="S3" t="s">
-        <v>127</v>
-      </c>
-      <c r="T3" t="s">
-        <v>120</v>
-      </c>
-      <c r="U3" t="s">
-        <v>120</v>
-      </c>
-      <c r="V3" t="s">
-        <v>120</v>
-      </c>
-      <c r="W3" t="s">
-        <v>127</v>
-      </c>
-      <c r="X3" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH3">
+      <c r="B4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4">
+        <v>134</v>
+      </c>
+      <c r="F4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4">
+        <v>7.3</v>
+      </c>
+      <c r="H4">
+        <v>88</v>
+      </c>
+      <c r="I4" t="s">
+        <v>198</v>
+      </c>
+      <c r="J4">
+        <v>438043</v>
+      </c>
+      <c r="K4">
+        <v>700059566</v>
+      </c>
+      <c r="L4" s="1">
+        <v>43147</v>
+      </c>
+      <c r="M4">
+        <v>2638</v>
+      </c>
+      <c r="N4">
+        <v>616</v>
+      </c>
+      <c r="O4">
+        <v>52</v>
+      </c>
+      <c r="P4">
+        <v>50</v>
+      </c>
+      <c r="Q4">
+        <v>164</v>
+      </c>
+      <c r="R4" t="s">
+        <v>120</v>
+      </c>
+      <c r="S4" t="s">
+        <v>125</v>
+      </c>
+      <c r="T4" t="s">
+        <v>120</v>
+      </c>
+      <c r="U4" t="s">
+        <v>120</v>
+      </c>
+      <c r="V4" t="s">
+        <v>120</v>
+      </c>
+      <c r="W4" t="s">
+        <v>120</v>
+      </c>
+      <c r="X4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH4">
+        <v>7</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>3</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>200</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AR4">
+        <v>2</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>202</v>
+      </c>
+      <c r="AT4">
+        <v>2</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>202</v>
+      </c>
+      <c r="AV4">
+        <v>3</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AX4">
+        <v>8</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>1</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH4">
+        <v>1</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>205</v>
+      </c>
+      <c r="BJ4">
+        <v>1</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>205</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>1</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>206</v>
+      </c>
+      <c r="BP4">
+        <v>1</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>207</v>
+      </c>
+      <c r="BR4">
+        <v>1</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>207</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>1</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>208</v>
+      </c>
+      <c r="BX4">
+        <v>2</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>209</v>
+      </c>
+      <c r="BZ4">
+        <v>3</v>
+      </c>
+      <c r="CA4" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="CB4">
+        <v>2</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CD4">
         <v>5</v>
       </c>
-      <c r="AI3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>184</v>
-      </c>
-      <c r="AL3">
-        <v>5</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AN3">
-        <v>1</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AP3">
-        <v>4</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>187</v>
-      </c>
-      <c r="AR3">
-        <v>1</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AT3">
+      <c r="CE4" t="s">
+        <v>212</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
         <v>2</v>
       </c>
-      <c r="AU3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AV3">
-        <v>1</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AX3">
+      <c r="CI4" t="s">
+        <v>213</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>1</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>214</v>
+      </c>
+      <c r="CP4">
+        <v>1</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>214</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>3</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>215</v>
+      </c>
+      <c r="CV4">
+        <v>1</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>216</v>
+      </c>
+      <c r="CX4">
         <v>7</v>
       </c>
-      <c r="AY3" t="s">
-        <v>190</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>1</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>191</v>
-      </c>
-      <c r="BD3">
-        <v>1</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>148</v>
-      </c>
-      <c r="BF3">
-        <v>1</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>148</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>1</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>192</v>
-      </c>
-      <c r="BP3">
-        <v>0</v>
-      </c>
-      <c r="BR3">
-        <v>0</v>
-      </c>
-      <c r="BT3">
-        <v>0</v>
-      </c>
-      <c r="BV3">
+      <c r="CY4" t="s">
+        <v>217</v>
+      </c>
+      <c r="CZ4">
+        <v>1</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>218</v>
+      </c>
+      <c r="DB4">
+        <v>1</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>218</v>
+      </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>1</v>
+      </c>
+      <c r="DI4" t="s">
+        <v>219</v>
+      </c>
+      <c r="DJ4">
+        <v>1</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>219</v>
+      </c>
+      <c r="DL4">
+        <v>2018</v>
+      </c>
+      <c r="DM4">
         <v>2</v>
       </c>
-      <c r="BW3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BX3">
-        <v>0</v>
-      </c>
-      <c r="BZ3">
-        <v>1</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>186</v>
-      </c>
-      <c r="CB3">
-        <v>0</v>
-      </c>
-      <c r="CD3">
-        <v>0</v>
-      </c>
-      <c r="CF3">
-        <v>0</v>
-      </c>
-      <c r="CH3">
-        <v>0</v>
-      </c>
-      <c r="CJ3">
-        <v>0</v>
-      </c>
-      <c r="CL3">
-        <v>1</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>194</v>
-      </c>
-      <c r="CN3">
-        <v>2</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>195</v>
-      </c>
-      <c r="CP3">
-        <v>2</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>195</v>
-      </c>
-      <c r="CR3">
-        <v>1</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>196</v>
-      </c>
-      <c r="CT3">
-        <v>1</v>
-      </c>
-      <c r="CU3" t="s">
-        <v>196</v>
-      </c>
-      <c r="CV3">
-        <v>1</v>
-      </c>
-      <c r="CW3" t="s">
-        <v>186</v>
-      </c>
-      <c r="CX3">
-        <v>1</v>
-      </c>
-      <c r="CY3" t="s">
-        <v>186</v>
-      </c>
-      <c r="CZ3">
-        <v>0</v>
-      </c>
-      <c r="DB3">
-        <v>0</v>
-      </c>
-      <c r="DD3">
-        <v>1</v>
-      </c>
-      <c r="DE3" t="s">
-        <v>197</v>
-      </c>
-      <c r="DF3">
-        <v>1</v>
-      </c>
-      <c r="DG3" t="s">
-        <v>197</v>
-      </c>
-      <c r="DH3">
-        <v>0</v>
-      </c>
-      <c r="DJ3">
-        <v>0</v>
-      </c>
-      <c r="DL3">
-        <v>2018</v>
-      </c>
-      <c r="DM3">
-        <v>11</v>
-      </c>
-      <c r="DN3">
-        <v>18</v>
-      </c>
-      <c r="DO3">
+      <c r="DN4">
+        <v>16</v>
+      </c>
+      <c r="DO4">
         <v>5</v>
       </c>
     </row>
@@ -2544,58 +2592,58 @@
         <v>2018</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D5" t="s">
         <v>119</v>
       </c>
       <c r="E5">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="F5" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="G5">
-        <v>5.6999998099999996</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H5">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="I5" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="J5">
-        <v>58</v>
+        <v>15726</v>
       </c>
       <c r="K5">
-        <v>154700000</v>
+        <v>320429</v>
       </c>
       <c r="L5" s="1">
-        <v>38541</v>
+        <v>43422</v>
       </c>
       <c r="M5">
-        <v>1008</v>
+        <v>144</v>
       </c>
       <c r="N5">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="O5">
-        <v>1876</v>
+        <v>22</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="R5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="S5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="T5" t="s">
         <v>120</v>
@@ -2607,7 +2655,7 @@
         <v>120</v>
       </c>
       <c r="W5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="X5" t="s">
         <v>120</v>
@@ -2616,10 +2664,10 @@
         <v>120</v>
       </c>
       <c r="Z5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AA5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AB5" t="s">
         <v>120</v>
@@ -2634,49 +2682,85 @@
         <v>120</v>
       </c>
       <c r="AF5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AG5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>181</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>182</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>183</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>184</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>185</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>141</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>186</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>187</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>188</v>
       </c>
       <c r="AZ5">
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>189</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>146</v>
       </c>
       <c r="BF5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>146</v>
       </c>
       <c r="BH5">
         <v>0</v>
@@ -2688,7 +2772,10 @@
         <v>0</v>
       </c>
       <c r="BN5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>190</v>
       </c>
       <c r="BP5">
         <v>0</v>
@@ -2700,13 +2787,19 @@
         <v>0</v>
       </c>
       <c r="BV5">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>191</v>
       </c>
       <c r="BX5">
         <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>184</v>
       </c>
       <c r="CB5">
         <v>0</v>
@@ -2724,25 +2817,46 @@
         <v>0</v>
       </c>
       <c r="CL5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>192</v>
       </c>
       <c r="CN5">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>193</v>
       </c>
       <c r="CP5">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>193</v>
       </c>
       <c r="CR5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>194</v>
       </c>
       <c r="CT5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>194</v>
       </c>
       <c r="CV5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>184</v>
       </c>
       <c r="CX5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>184</v>
       </c>
       <c r="CZ5">
         <v>0</v>
@@ -2751,10 +2865,16 @@
         <v>0</v>
       </c>
       <c r="DD5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="DE5" t="s">
+        <v>195</v>
       </c>
       <c r="DF5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="DG5" t="s">
+        <v>195</v>
       </c>
       <c r="DH5">
         <v>0</v>
@@ -2766,10 +2886,10 @@
         <v>2018</v>
       </c>
       <c r="DM5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="DN5">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="DO5">
         <v>5</v>
@@ -2780,19 +2900,19 @@
         <v>2018</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E6">
         <v>123</v>
       </c>
       <c r="F6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G6">
         <v>7.40000009999999</v>
@@ -2801,7 +2921,7 @@
         <v>61</v>
       </c>
       <c r="I6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J6">
         <v>63852</v>
@@ -2849,7 +2969,7 @@
         <v>120</v>
       </c>
       <c r="Y6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Z6" t="s">
         <v>120</v>
@@ -2879,31 +2999,31 @@
         <v>6</v>
       </c>
       <c r="AI6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AJ6">
         <v>1</v>
       </c>
       <c r="AK6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AL6">
         <v>2</v>
       </c>
       <c r="AM6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AN6">
         <v>1</v>
       </c>
       <c r="AO6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AP6">
         <v>4</v>
       </c>
       <c r="AQ6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2912,7 +3032,7 @@
         <v>2</v>
       </c>
       <c r="AU6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AV6">
         <v>0</v>
@@ -2921,49 +3041,49 @@
         <v>2</v>
       </c>
       <c r="AY6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>1</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>133</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>1</v>
+      </c>
+      <c r="BW6" t="s">
         <v>134</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
-      </c>
-      <c r="BH6">
-        <v>0</v>
-      </c>
-      <c r="BJ6">
-        <v>0</v>
-      </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BN6">
-        <v>0</v>
-      </c>
-      <c r="BP6">
-        <v>0</v>
-      </c>
-      <c r="BR6">
-        <v>1</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>135</v>
-      </c>
-      <c r="BT6">
-        <v>0</v>
-      </c>
-      <c r="BV6">
-        <v>1</v>
-      </c>
-      <c r="BW6" t="s">
-        <v>136</v>
       </c>
       <c r="BX6">
         <v>0</v>
@@ -3043,10 +3163,10 @@
         <v>2018</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D7" t="s">
         <v>119</v>
@@ -3055,7 +3175,7 @@
         <v>178</v>
       </c>
       <c r="F7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G7">
         <v>8.8000001900000004</v>
@@ -3064,7 +3184,7 @@
         <v>92</v>
       </c>
       <c r="I7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J7">
         <v>1286275</v>
@@ -3094,13 +3214,13 @@
         <v>120</v>
       </c>
       <c r="S7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T7" t="s">
         <v>120</v>
       </c>
       <c r="U7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="V7" t="s">
         <v>120</v>
@@ -3118,7 +3238,7 @@
         <v>120</v>
       </c>
       <c r="AA7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AB7" t="s">
         <v>120</v>
@@ -3130,7 +3250,7 @@
         <v>120</v>
       </c>
       <c r="AE7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AF7" t="s">
         <v>120</v>
@@ -3142,7 +3262,7 @@
         <v>13</v>
       </c>
       <c r="AI7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -3151,79 +3271,79 @@
         <v>4</v>
       </c>
       <c r="AM7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AN7">
         <v>5</v>
       </c>
       <c r="AO7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AP7">
         <v>14</v>
       </c>
       <c r="AQ7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AR7">
         <v>1</v>
       </c>
       <c r="AS7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AT7">
         <v>2</v>
       </c>
       <c r="AU7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AV7">
         <v>3</v>
       </c>
       <c r="AW7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AX7">
         <v>5</v>
       </c>
       <c r="AY7" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>1</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>1</v>
+      </c>
+      <c r="BG7" t="s">
         <v>146</v>
       </c>
-      <c r="AZ7">
-        <v>0</v>
-      </c>
-      <c r="BB7">
-        <v>1</v>
-      </c>
-      <c r="BC7" t="s">
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>1</v>
+      </c>
+      <c r="BK7" t="s">
         <v>147</v>
       </c>
-      <c r="BD7">
-        <v>0</v>
-      </c>
-      <c r="BF7">
-        <v>1</v>
-      </c>
-      <c r="BG7" t="s">
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>1</v>
+      </c>
+      <c r="BO7" t="s">
         <v>148</v>
-      </c>
-      <c r="BH7">
-        <v>0</v>
-      </c>
-      <c r="BJ7">
-        <v>1</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>149</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BN7">
-        <v>1</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>150</v>
       </c>
       <c r="BP7">
         <v>0</v>
@@ -3235,13 +3355,13 @@
         <v>13</v>
       </c>
       <c r="BU7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="BV7">
         <v>22</v>
       </c>
       <c r="BW7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="BX7">
         <v>1</v>
@@ -3253,82 +3373,82 @@
         <v>8</v>
       </c>
       <c r="CA7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="CB7">
         <v>2</v>
       </c>
       <c r="CC7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="CD7">
         <v>3</v>
       </c>
       <c r="CE7" t="s">
+        <v>153</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CL7">
+        <v>1</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>154</v>
+      </c>
+      <c r="CN7">
+        <v>0</v>
+      </c>
+      <c r="CP7">
+        <v>0</v>
+      </c>
+      <c r="CR7">
+        <v>0</v>
+      </c>
+      <c r="CT7">
+        <v>1</v>
+      </c>
+      <c r="CU7" t="s">
         <v>155</v>
       </c>
-      <c r="CF7">
-        <v>0</v>
-      </c>
-      <c r="CH7">
-        <v>0</v>
-      </c>
-      <c r="CJ7">
-        <v>0</v>
-      </c>
-      <c r="CL7">
-        <v>1</v>
-      </c>
-      <c r="CM7" t="s">
+      <c r="CV7">
+        <v>0</v>
+      </c>
+      <c r="CX7">
+        <v>0</v>
+      </c>
+      <c r="CZ7">
+        <v>0</v>
+      </c>
+      <c r="DB7">
+        <v>1</v>
+      </c>
+      <c r="DC7" t="s">
         <v>156</v>
       </c>
-      <c r="CN7">
-        <v>0</v>
-      </c>
-      <c r="CP7">
-        <v>0</v>
-      </c>
-      <c r="CR7">
-        <v>0</v>
-      </c>
-      <c r="CT7">
-        <v>1</v>
-      </c>
-      <c r="CU7" t="s">
+      <c r="DD7">
+        <v>0</v>
+      </c>
+      <c r="DF7">
+        <v>0</v>
+      </c>
+      <c r="DH7">
+        <v>1</v>
+      </c>
+      <c r="DI7" t="s">
         <v>157</v>
-      </c>
-      <c r="CV7">
-        <v>0</v>
-      </c>
-      <c r="CX7">
-        <v>0</v>
-      </c>
-      <c r="CZ7">
-        <v>0</v>
-      </c>
-      <c r="DB7">
-        <v>1</v>
-      </c>
-      <c r="DC7" t="s">
-        <v>158</v>
-      </c>
-      <c r="DD7">
-        <v>0</v>
-      </c>
-      <c r="DF7">
-        <v>0</v>
-      </c>
-      <c r="DH7">
-        <v>1</v>
-      </c>
-      <c r="DI7" t="s">
-        <v>159</v>
       </c>
       <c r="DJ7">
         <v>2</v>
       </c>
       <c r="DK7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="DL7">
         <v>2018</v>
@@ -3348,10 +3468,10 @@
         <v>2018</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D8" t="s">
         <v>119</v>
@@ -3360,7 +3480,7 @@
         <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G8">
         <v>6.0999999000000003</v>
@@ -3369,7 +3489,7 @@
         <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J8">
         <v>249988</v>
@@ -3468,13 +3588,13 @@
         <v>1</v>
       </c>
       <c r="AW8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AX8">
         <v>1</v>
       </c>
       <c r="AY8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AZ8">
         <v>0</v>
@@ -3513,7 +3633,7 @@
         <v>1</v>
       </c>
       <c r="BW8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="BX8">
         <v>0</v>
@@ -3593,19 +3713,19 @@
         <v>2018</v>
       </c>
       <c r="B9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" t="s">
         <v>177</v>
       </c>
-      <c r="C9" t="s">
-        <v>179</v>
-      </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E9">
         <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G9">
         <v>6.6999998099999996</v>
@@ -3614,7 +3734,7 @@
         <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J9">
         <v>204545</v>
@@ -3829,10 +3949,10 @@
         <v>2018</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D10" t="s">
         <v>119</v>
@@ -3841,7 +3961,7 @@
         <v>104</v>
       </c>
       <c r="F10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G10">
         <v>7.40000009999999</v>
@@ -3850,7 +3970,7 @@
         <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J10">
         <v>468351</v>
@@ -3982,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="BS10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BT10">
         <v>0</v>
@@ -3991,7 +4111,7 @@
         <v>2</v>
       </c>
       <c r="BW10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="BX10">
         <v>0</v>
